--- a/z.ERP/trunk/z.ERP.Web/File/Template/凭证导出.xlsx
+++ b/z.ERP/trunk/z.ERP.Web/File/Template/凭证导出.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>备注1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -300,10 +300,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>任意四位数字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>接系统</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -313,6 +309,22 @@
   </si>
   <si>
     <t>品类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=resultdt.PZID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=resultdt.YEAR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=resultdt.KJQJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=resultdt.ZDRQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -760,8 +772,8 @@
   <dimension ref="A1:AX2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD3" sqref="AD3"/>
+      <pane xSplit="7" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -907,7 +919,7 @@
         <v>23</v>
       </c>
       <c r="AN1" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AO1" s="2" t="s">
         <v>24</v>
@@ -941,14 +953,23 @@
       </c>
     </row>
     <row r="2" spans="1:50">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="AD2" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/z.ERP/trunk/z.ERP.Web/File/Template/凭证导出.xlsx
+++ b/z.ERP/trunk/z.ERP.Web/File/Template/凭证导出.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>备注1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -300,18 +300,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>接系统</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>楼层</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>品类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&amp;=resultdt.PZID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -325,6 +317,137 @@
   </si>
   <si>
     <t>&amp;=resultdt.ZDRQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=resultdt.PZBH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=resultdt.PZLB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=resultdt.ZDR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=resultdt.DJZS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=resultdt.KMBM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=resultdt.BZMC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=resultdt.YBJF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=resultdt.YBDF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=resultdt.JFJE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=resultdt.DFJE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=resultdt.BMBM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=resultdt.ZYBM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=resultdt.KHBM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=resultdt.GYSBM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=resultdt.XMDLBM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&amp;=resultdt.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>XMBM</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=resultdt.YWY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=resultdt.LC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=resultdt.ZDYX10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=resultdt.ZDYX11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=resultdt.ZDYX12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=resultdt.ZDYX13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=resultdt.ZDYX14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=resultdt.ZDYX15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=resultdt.ZDYX16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=resultdt.XJLLXM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=resultdt.XJLLJFJE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=resultdt.XJLLDFJE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=resultdt.ZY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=resultdt.PJRQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -332,7 +455,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -378,18 +501,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -438,7 +549,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -457,21 +568,15 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -772,19 +877,26 @@
   <dimension ref="A1:AX2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E6" sqref="E6"/>
+      <pane xSplit="7" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="3" customWidth="1"/>
-    <col min="2" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="9.875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.375" style="3" customWidth="1"/>
     <col min="9" max="10" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="11" max="12" width="9" style="3"/>
+    <col min="11" max="11" width="15.5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="15.25" style="3" customWidth="1"/>
     <col min="13" max="13" width="11.125" style="3" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="10.25" style="3" customWidth="1"/>
     <col min="16" max="16" width="7.5" style="3" customWidth="1"/>
     <col min="17" max="17" width="6.625" style="3" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="5.5" style="3" hidden="1" customWidth="1"/>
@@ -861,10 +973,10 @@
       <c r="T1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="9" t="s">
         <v>48</v>
       </c>
       <c r="W1" s="6" t="s">
@@ -879,7 +991,7 @@
       <c r="Z1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AA1" s="10" t="s">
         <v>39</v>
       </c>
       <c r="AB1" s="7" t="s">
@@ -888,7 +1000,7 @@
       <c r="AC1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AD1" s="11" t="s">
         <v>42</v>
       </c>
       <c r="AE1" s="7" t="s">
@@ -918,8 +1030,8 @@
       <c r="AM1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AN1" s="9" t="s">
-        <v>50</v>
+      <c r="AN1" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="AO1" s="2" t="s">
         <v>24</v>
@@ -954,22 +1066,106 @@
     </row>
     <row r="2" spans="1:50">
       <c r="A2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD2" s="13" t="s">
-        <v>51</v>
+      <c r="G2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/z.ERP/trunk/z.ERP.Web/File/Template/凭证导出.xlsx
+++ b/z.ERP/trunk/z.ERP.Web/File/Template/凭证导出.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VsWorkSpace\z.ERP\trunk\z.ERP.Web\File\Template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905AED4E-355E-4D8B-9D50-836080E9CDA8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="15480" windowHeight="8325"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="15480" windowHeight="8330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,47 +25,47 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>备注1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>备注2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>所附单据数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>科目编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>摘要</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>汇率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>票据号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>票据日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>单价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>借方金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>贷方金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>自定义项12</t>
@@ -78,7 +84,7 @@
   </si>
   <si>
     <t>现金流量项目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -199,75 +205,75 @@
   </si>
   <si>
     <t>制单日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>凭证类别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>凭证号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>制单人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>结算方式编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>币种名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>凭证ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>会计年</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>会计期间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>现金流量借方金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>现金流量贷方金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>部门编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>职员编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>客户编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>供应商编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>项目大类编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>项目编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>业务员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -281,103 +287,99 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>借方数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>贷方数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>原币借方</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>原币贷方</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>楼层</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=resultdt.PZID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=resultdt.YEAR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=resultdt.KJQJ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=resultdt.ZDRQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=resultdt.PZBH</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=resultdt.PZLB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=resultdt.ZDR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=resultdt.DJZS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=resultdt.KMBM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=resultdt.BZMC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=resultdt.YBJF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=resultdt.YBDF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=resultdt.JFJE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=resultdt.DFJE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=resultdt.BMBM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=resultdt.ZYBM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=resultdt.KHBM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=resultdt.GYSBM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=resultdt.XMDLBM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -392,75 +394,105 @@
       </rPr>
       <t>XMBM</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=resultdt.YWY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=resultdt.LC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=resultdt.ZDYX10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=resultdt.ZDYX11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=resultdt.ZDYX12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=resultdt.ZDYX13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=resultdt.ZDYX14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=resultdt.ZDYX15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=resultdt.ZDYX16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=resultdt.XJLLXM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=resultdt.XJLLJFJE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=resultdt.XJLLDFJE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=resultdt.ZY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=resultdt.PJRQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>自定义项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -506,29 +538,17 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF0070C0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF00B0F0"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -544,53 +564,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -632,7 +657,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -664,9 +689,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -698,6 +741,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -873,46 +934,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O6" sqref="O6"/>
+      <pane xSplit="7" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.08984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" style="3" customWidth="1"/>
     <col min="9" max="10" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="15.25" style="3" customWidth="1"/>
-    <col min="13" max="13" width="11.125" style="3" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.453125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.08984375" style="3" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="10.25" style="3" customWidth="1"/>
-    <col min="16" max="16" width="7.5" style="3" customWidth="1"/>
-    <col min="17" max="17" width="6.625" style="3" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="5.5" style="3" hidden="1" customWidth="1"/>
-    <col min="19" max="20" width="9.125" style="3" hidden="1" customWidth="1"/>
-    <col min="21" max="22" width="8.375" style="3" customWidth="1"/>
-    <col min="23" max="28" width="9" style="3"/>
-    <col min="29" max="29" width="9.875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="10.26953125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="7.453125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="6.6328125" style="3" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="5.453125" style="3" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="6.6328125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="8.54296875" style="3" customWidth="1"/>
+    <col min="21" max="22" width="8.36328125" style="3" customWidth="1"/>
+    <col min="23" max="25" width="9" style="3"/>
+    <col min="26" max="26" width="12" style="3" customWidth="1"/>
+    <col min="27" max="27" width="9" style="3"/>
+    <col min="28" max="28" width="14.1796875" style="3" customWidth="1"/>
+    <col min="29" max="29" width="9.90625" style="3" customWidth="1"/>
     <col min="30" max="31" width="9" style="3"/>
     <col min="32" max="39" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="40" max="47" width="9" style="3"/>
-    <col min="48" max="48" width="10.625" style="3" customWidth="1"/>
+    <col min="48" max="48" width="10.6328125" style="3" customWidth="1"/>
     <col min="49" max="50" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="51" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="12.75">
+    <row r="1" spans="1:50" ht="14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
@@ -973,10 +1038,10 @@
       <c r="T1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="8" t="s">
         <v>48</v>
       </c>
       <c r="W1" s="6" t="s">
@@ -991,7 +1056,7 @@
       <c r="Z1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AA1" s="9" t="s">
         <v>39</v>
       </c>
       <c r="AB1" s="7" t="s">
@@ -1000,7 +1065,7 @@
       <c r="AC1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AD1" s="10" t="s">
         <v>42</v>
       </c>
       <c r="AE1" s="7" t="s">
@@ -1030,8 +1095,8 @@
       <c r="AM1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AN1" s="8" t="s">
-        <v>49</v>
+      <c r="AN1" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="AO1" s="2" t="s">
         <v>24</v>
@@ -1064,159 +1129,158 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:50">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="P2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="AA2" s="3" t="s">
         <v>66</v>
       </c>
       <c r="AB2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AN2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AO2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AP2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AP2" s="3" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AR2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AR2" s="3" t="s">
+      <c r="AS2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="AT2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AT2" s="3" t="s">
+      <c r="AU2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AU2" s="3" t="s">
+      <c r="AV2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AV2" s="3" t="s">
+      <c r="AW2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AW2" s="3" t="s">
+      <c r="AX2" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="AX2" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations xWindow="813" yWindow="229" count="45">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有部门辅助核算的科目必输，12个字符" sqref="Y1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有个人辅助核算的科目必输，20个字符" sqref="Z1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有客户辅助核算的科目必输，20个字符" sqref="AA1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有供应商辅助核算的科目必输，20个字符" sqref="AB1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有项目辅助核算的科目必输，2个字符" sqref="AC1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有项目辅助核算的科目必输，60个字符" sqref="AD1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有客户或供应商往来辅助核算的科目必输，10个字符" sqref="AE1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有自定义项1辅助核算的科目必输，20个字符" sqref="AF1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有自定义项2辅助核算的科目必输，20个字符" sqref="AG1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有自定义项3辅助核算的科目必输，20个字符" sqref="AH1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有自定义项4辅助核算的科目必输，20个字符" sqref="AI1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有自定义项5辅助核算的科目必输，20个字符" sqref="AJ1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有自定义项6辅助核算的科目必输，20个字符" sqref="AK1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有自定义项7辅助核算的科目必输，20个字符" sqref="AL1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有自定义项8辅助核算的科目必输，20个字符" sqref="AM1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有自定义项9辅助核算的科目必输，20个字符" sqref="AN1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有自定义项10辅助核算的科目必输，20个字符" sqref="AO1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有自定义项11辅助核算的科目必输，20个字符" sqref="AP1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有自定义项12辅助核算的科目必输，20个字符" sqref="AQ1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有自定义项13辅助核算的科目必输，20个字符" sqref="AR1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有自定义项14辅助核算的科目必输，20个字符" sqref="AS1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有自定义项15辅助核算的科目必输，20个字符" sqref="AT1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有自定义项16辅助核算的科目必输，20个字符" sqref="AU1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入科目的贷方发生金额，16位，整数部分13位，小数2位" sqref="X1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入科目的借方发生金额，16位，整数部分13位，小数2位" sqref="W1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="科目有数量辅助核算时输入，17位" sqref="R1:T1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="最大4个字符" sqref="H1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="最大输入10个字符" sqref="I1:J1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="必输项，40个字符" sqref="K1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="必输项，60个字符" sqref="L1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="3个字符" sqref="M1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有客户、供应商、个人往来辅助核算的科目可录入票号，30个字符" sqref="N1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有客户、供应商、个人往来辅助核算的科目可录入票据日期，输入合法日期，8位" sqref="O1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="必输项，8个字符" sqref="P1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="科目有外币辅助核算时输入，17位" sqref="U1:V1 Q1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="凭证中有现金流量科目时输入，60个字符" sqref="AV1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="录入现金流量项目的借方金额，15位" sqref="AW1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="录入现金流量项目的贷方金额，15位" sqref="AX1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="必输项，10个字符" sqref="G1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="录入合法日期，必输项，8个字符" sqref="D1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="必输项，输入凭证类别字，8个字符" sqref="E1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="必输项，凭证号不能超过32766" sqref="F1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="标识同一张凭证" sqref="A1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="必输项，凭证所属的会计年度" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="必输项，凭证所属的会计期间" sqref="C1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations xWindow="813" yWindow="229" count="44">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有部门辅助核算的科目必输，12个字符" sqref="Y1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有个人辅助核算的科目必输，20个字符" sqref="Z1" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有客户辅助核算的科目必输，20个字符" sqref="AA1" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有供应商辅助核算的科目必输，20个字符" sqref="AB1" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有项目辅助核算的科目必输，2个字符" sqref="AC1" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有项目辅助核算的科目必输，60个字符" sqref="AD1" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有客户或供应商往来辅助核算的科目必输，10个字符" sqref="AE1" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有自定义项1辅助核算的科目必输，20个字符" sqref="AF1" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有自定义项2辅助核算的科目必输，20个字符" sqref="AG1" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有自定义项3辅助核算的科目必输，20个字符" sqref="AH1" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有自定义项4辅助核算的科目必输，20个字符" sqref="AI1" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有自定义项5辅助核算的科目必输，20个字符" sqref="AJ1" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有自定义项6辅助核算的科目必输，20个字符" sqref="AK1" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有自定义项7辅助核算的科目必输，20个字符" sqref="AL1" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有自定义项8辅助核算的科目必输，20个字符" sqref="AM1" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有自定义项10辅助核算的科目必输，20个字符" sqref="AN1:AO1" xr:uid="{00000000-0002-0000-0000-000010000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有自定义项11辅助核算的科目必输，20个字符" sqref="AP1" xr:uid="{00000000-0002-0000-0000-000011000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有自定义项12辅助核算的科目必输，20个字符" sqref="AQ1" xr:uid="{00000000-0002-0000-0000-000012000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有自定义项13辅助核算的科目必输，20个字符" sqref="AR1" xr:uid="{00000000-0002-0000-0000-000013000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有自定义项14辅助核算的科目必输，20个字符" sqref="AS1" xr:uid="{00000000-0002-0000-0000-000014000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有自定义项15辅助核算的科目必输，20个字符" sqref="AT1" xr:uid="{00000000-0002-0000-0000-000015000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有自定义项16辅助核算的科目必输，20个字符" sqref="AU1" xr:uid="{00000000-0002-0000-0000-000016000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入科目的贷方发生金额，16位，整数部分13位，小数2位" sqref="X1" xr:uid="{00000000-0002-0000-0000-000017000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入科目的借方发生金额，16位，整数部分13位，小数2位" sqref="W1" xr:uid="{00000000-0002-0000-0000-000018000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="科目有数量辅助核算时输入，17位" sqref="R1:T1" xr:uid="{00000000-0002-0000-0000-000019000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="最大4个字符" sqref="H1" xr:uid="{00000000-0002-0000-0000-00001A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="最大输入10个字符" sqref="I1:J1" xr:uid="{00000000-0002-0000-0000-00001B000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="必输项，40个字符" sqref="K1" xr:uid="{00000000-0002-0000-0000-00001C000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="必输项，60个字符" sqref="L1" xr:uid="{00000000-0002-0000-0000-00001D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="3个字符" sqref="M1" xr:uid="{00000000-0002-0000-0000-00001E000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有客户、供应商、个人往来辅助核算的科目可录入票号，30个字符" sqref="N1" xr:uid="{00000000-0002-0000-0000-00001F000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="有客户、供应商、个人往来辅助核算的科目可录入票据日期，输入合法日期，8位" sqref="O1" xr:uid="{00000000-0002-0000-0000-000020000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="必输项，8个字符" sqref="P1" xr:uid="{00000000-0002-0000-0000-000021000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="科目有外币辅助核算时输入，17位" sqref="U1:V1 Q1" xr:uid="{00000000-0002-0000-0000-000022000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="凭证中有现金流量科目时输入，60个字符" sqref="AV1" xr:uid="{00000000-0002-0000-0000-000023000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="录入现金流量项目的借方金额，15位" sqref="AW1" xr:uid="{00000000-0002-0000-0000-000024000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="录入现金流量项目的贷方金额，15位" sqref="AX1" xr:uid="{00000000-0002-0000-0000-000025000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="必输项，10个字符" sqref="G1" xr:uid="{00000000-0002-0000-0000-000026000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="录入合法日期，必输项，8个字符" sqref="D1" xr:uid="{00000000-0002-0000-0000-000027000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="必输项，输入凭证类别字，8个字符" sqref="E1" xr:uid="{00000000-0002-0000-0000-000028000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="必输项，凭证号不能超过32766" sqref="F1" xr:uid="{00000000-0002-0000-0000-000029000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="标识同一张凭证" sqref="A1" xr:uid="{00000000-0002-0000-0000-00002A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="必输项，凭证所属的会计年度" sqref="B1" xr:uid="{00000000-0002-0000-0000-00002B000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="必输项，凭证所属的会计期间" sqref="C1" xr:uid="{00000000-0002-0000-0000-00002C000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1224,27 +1288,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/z.ERP/trunk/z.ERP.Web/File/Template/凭证导出.xlsx
+++ b/z.ERP/trunk/z.ERP.Web/File/Template/凭证导出.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VsWorkSpace\z.ERP\trunk\z.ERP.Web\File\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905AED4E-355E-4D8B-9D50-836080E9CDA8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD08FCE-9ED2-48CF-BBF0-24D42F43F0C6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="15480" windowHeight="8330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -401,10 +401,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>&amp;=resultdt.LC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>&amp;=resultdt.ZDYX10</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -474,6 +470,10 @@
       </rPr>
       <t/>
     </r>
+  </si>
+  <si>
+    <t>&amp;=resultdt.ZDYX9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -939,7 +939,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
@@ -1096,7 +1096,7 @@
         <v>23</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AO1" s="2" t="s">
         <v>24</v>
@@ -1158,10 +1158,10 @@
         <v>57</v>
       </c>
       <c r="L2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>58</v>
@@ -1200,37 +1200,37 @@
         <v>69</v>
       </c>
       <c r="AN2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AP2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AP2" s="3" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AR2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AR2" s="3" t="s">
+      <c r="AS2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="AT2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AT2" s="3" t="s">
+      <c r="AU2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AU2" s="3" t="s">
+      <c r="AV2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AV2" s="3" t="s">
+      <c r="AW2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AW2" s="3" t="s">
+      <c r="AX2" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="AX2" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/z.ERP/trunk/z.ERP.Web/File/Template/凭证导出.xlsx
+++ b/z.ERP/trunk/z.ERP.Web/File/Template/凭证导出.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VsWorkSpace\z.ERP\trunk\z.ERP.Web\File\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD08FCE-9ED2-48CF-BBF0-24D42F43F0C6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECB5270-BC80-47AA-9EDE-5850DEEB4762}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="15480" windowHeight="8330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="15480" windowHeight="8328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>备注1</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -390,6 +390,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>XMBM</t>
@@ -442,10 +443,6 @@
   </si>
   <si>
     <t>&amp;=resultdt.ZY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=resultdt.PJRQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -497,21 +494,25 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -523,23 +524,27 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF00B0F0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -939,45 +944,44 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.08984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.81640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.77734375" style="3" customWidth="1"/>
     <col min="9" max="10" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="15.453125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.453125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="11.08984375" style="3" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" style="3" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="10.26953125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="7.453125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="6.6328125" style="3" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="5.453125" style="3" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="6.6328125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="8.54296875" style="3" customWidth="1"/>
-    <col min="21" max="22" width="8.36328125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="10.21875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="6.6640625" style="3" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="5.44140625" style="3" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="6.6640625" style="3" customWidth="1"/>
+    <col min="20" max="20" width="8.5546875" style="3" customWidth="1"/>
+    <col min="21" max="22" width="8.33203125" style="3" customWidth="1"/>
     <col min="23" max="25" width="9" style="3"/>
     <col min="26" max="26" width="12" style="3" customWidth="1"/>
     <col min="27" max="27" width="9" style="3"/>
-    <col min="28" max="28" width="14.1796875" style="3" customWidth="1"/>
-    <col min="29" max="29" width="9.90625" style="3" customWidth="1"/>
+    <col min="28" max="28" width="14.21875" style="3" customWidth="1"/>
+    <col min="29" max="29" width="9.88671875" style="3" customWidth="1"/>
     <col min="30" max="31" width="9" style="3"/>
     <col min="32" max="39" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="40" max="47" width="9" style="3"/>
-    <col min="48" max="48" width="10.6328125" style="3" customWidth="1"/>
+    <col min="48" max="48" width="10.6640625" style="3" customWidth="1"/>
     <col min="49" max="50" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="51" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" ht="14.4" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
@@ -1096,7 +1100,7 @@
         <v>23</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AO1" s="2" t="s">
         <v>24</v>
@@ -1160,9 +1164,6 @@
       <c r="L2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="P2" s="3" t="s">
         <v>58</v>
       </c>
@@ -1200,7 +1201,7 @@
         <v>69</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AO2" s="3" t="s">
         <v>70</v>
@@ -1293,7 +1294,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1306,7 +1307,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
